--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4BEF62-3828-C24B-BA41-E218CEB7075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6606F7-7EF5-6B47-821E-62A496224870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="20780" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -62,18 +62,9 @@
     <t>Basic arithmetic operations with error handling.</t>
   </si>
   <si>
-    <t>Unit Converter</t>
-  </si>
-  <si>
-    <t>Length, weight, and temperature conversions.</t>
-  </si>
-  <si>
     <t>Personal Budget Tracker</t>
   </si>
   <si>
-    <t>Track income, expenses, and savings in a console app.</t>
-  </si>
-  <si>
     <t>Console-Based To-Do List</t>
   </si>
   <si>
@@ -411,6 +402,18 @@
   </si>
   <si>
     <t>Add GUI</t>
+  </si>
+  <si>
+    <t>Make it a blazor app</t>
+  </si>
+  <si>
+    <t>BMI Calculator</t>
+  </si>
+  <si>
+    <t>Weight and height to BMI</t>
+  </si>
+  <si>
+    <t>Track expenses, and savings in a console app.</t>
   </si>
 </sst>
 </file>
@@ -469,38 +472,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -522,26 +494,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -877,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,13 +864,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -928,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -942,12 +901,17 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -957,10 +921,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -996,13 +963,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1010,13 +977,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1024,13 +991,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1038,13 +1005,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1066,13 +1033,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1080,13 +1047,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1094,13 +1061,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1108,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1136,13 +1103,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1150,13 +1117,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1164,13 +1131,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1178,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1192,13 +1159,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1206,13 +1173,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1220,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,13 +1201,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,13 +1215,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1262,13 +1229,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1276,13 +1243,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1290,13 +1257,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,13 +1271,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1318,13 +1285,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1332,13 +1299,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1346,13 +1313,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,13 +1327,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,13 +1341,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1388,13 +1355,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,13 +1369,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1416,13 +1383,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,13 +1397,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,13 +1411,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,13 +1425,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,13 +1439,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,13 +1453,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,13 +1481,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,13 +1495,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,13 +1509,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,13 +1523,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1537,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,13 +1551,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,13 +1565,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,13 +1579,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,13 +1593,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,37 +1607,27 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E50 F2">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"finished"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"on hold"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E3:F3">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"on hold"</formula>
+  <conditionalFormatting sqref="F2:F3 E2:E50">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E53 F2">
+  <conditionalFormatting sqref="F2:F3 E2:E53">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"on hold"</formula>
     </cfRule>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6606F7-7EF5-6B47-821E-62A496224870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4AE902-BE3A-BE4C-B653-3855705FF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>Personal Budget Tracker</t>
   </si>
   <si>
-    <t>Console-Based To-Do List</t>
-  </si>
-  <si>
-    <t>Basic CRUD operations with local file storage.</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
@@ -414,6 +408,12 @@
   </si>
   <si>
     <t>Track expenses, and savings in a console app.</t>
+  </si>
+  <si>
+    <t>Schedule Automation</t>
+  </si>
+  <si>
+    <t>Automate filling out information using PlayWright</t>
   </si>
 </sst>
 </file>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,13 +864,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -901,16 +901,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -924,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -938,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -963,13 +963,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -977,13 +977,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -991,13 +991,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1005,13 +1005,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1033,13 +1033,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1047,13 +1047,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,13 +1061,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1089,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,13 +1103,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,13 +1117,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,13 +1131,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1145,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,13 +1159,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,13 +1173,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,13 +1201,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1215,13 +1215,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,13 +1229,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,13 +1243,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,13 +1257,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,13 +1271,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1285,13 +1285,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,13 +1299,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,13 +1313,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,13 +1327,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,13 +1341,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
         <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1355,13 +1355,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,13 +1369,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,13 +1383,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,13 +1397,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
         <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,13 +1411,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,13 +1425,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,13 +1439,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,13 +1453,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
         <v>91</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,13 +1495,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,13 +1509,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
         <v>100</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,13 +1523,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,13 +1537,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,13 +1551,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,13 +1565,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,13 +1579,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,13 +1593,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,13 +1607,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4AE902-BE3A-BE4C-B653-3855705FF52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284CBC0C-E10C-5D46-858A-AC2565DDB46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
+    <workbookView xWindow="4680" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284CBC0C-E10C-5D46-858A-AC2565DDB46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50E13C-D757-8049-9AD9-4B3108D4F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
+    <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>Week</t>
   </si>
@@ -389,9 +389,6 @@
     <t>finished</t>
   </si>
   <si>
-    <t>Improvement</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -414,6 +411,12 @@
   </si>
   <si>
     <t>Automate filling out information using PlayWright</t>
+  </si>
+  <si>
+    <t>Will finish it on February, can't fully test it now</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,14 +867,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -890,7 +891,7 @@
         <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -901,16 +902,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -924,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>115</v>
@@ -938,9 +939,12 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
         <v>123</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1622,12 +1626,12 @@
       <formula>"not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 E2:E50">
+  <conditionalFormatting sqref="F2:F3 E2:E50 F5">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 E2:E53">
+  <conditionalFormatting sqref="F2:F3 E2:E53 F5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"on hold"</formula>
     </cfRule>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50E13C-D757-8049-9AD9-4B3108D4F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05ADAD6-597D-8E44-AF4C-4619AF5C85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>Week</t>
   </si>
@@ -837,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,10 +950,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -964,659 +964,667 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>98</v>
       </c>
       <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
         <v>113</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1626,18 +1634,18 @@
       <formula>"not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 E2:E50 F5">
+  <conditionalFormatting sqref="F2:F3 E2:E51 F5:F6">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"finished"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 E2:E53 F5">
+  <conditionalFormatting sqref="F2:F3 E2:E54 F5:F6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"on hold"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53" xr:uid="{0AC865DF-9898-314B-B5C1-0944FCA34D84}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E54" xr:uid="{0AC865DF-9898-314B-B5C1-0944FCA34D84}">
       <formula1>"finished,not started"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05ADAD6-597D-8E44-AF4C-4619AF5C85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49B44C-058D-BA43-9329-BA0157CFEFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49B44C-058D-BA43-9329-BA0157CFEFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE4936-985A-E24F-A397-18168BB3214E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>Week</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Wheelpicker</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,6 +971,9 @@
       </c>
       <c r="B7" t="s">
         <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE4936-985A-E24F-A397-18168BB3214E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F82D4-4D09-FB47-BA77-71956EFF2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="900" windowWidth="25800" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <t>Week</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>Wheelpicker</t>
+  </si>
+  <si>
+    <t>on hold</t>
+  </si>
+  <si>
+    <t>Not C#, ended up using React.</t>
+  </si>
+  <si>
+    <t>Add validation and ASP.NET backend</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,69 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -842,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,6 +1018,9 @@
       <c r="D5" t="s">
         <v>123</v>
       </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
       <c r="F5" t="s">
         <v>124</v>
       </c>
@@ -964,6 +1038,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -975,6 +1052,15 @@
       <c r="C7" t="s">
         <v>126</v>
       </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1635,24 +1721,20 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:F3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="F2:F3 E2:E51 F5:F7">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"finished"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"on hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 E2:E51 F5:F6">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"finished"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 E2:E54 F5:F6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"on hold"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E54" xr:uid="{0AC865DF-9898-314B-B5C1-0944FCA34D84}">
-      <formula1>"finished,not started"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E54" xr:uid="{30011896-47F2-7144-B6D3-445480AAC5D6}">
+      <formula1>"finished, on hold, not finished"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F82D4-4D09-FB47-BA77-71956EFF2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762EAB73-BB51-294C-89E4-3E32EAB4C4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
+    <workbookView xWindow="4680" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
   <si>
     <t>Week</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Your first REST API.</t>
-  </si>
-  <si>
-    <t>Static Website with ASP.NET Core</t>
-  </si>
-  <si>
-    <t>HTML and CSS basics.</t>
   </si>
   <si>
     <t>Weather Dashboard</t>
@@ -487,17 +481,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -521,63 +505,11 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -913,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -962,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,16 +908,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -999,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1013,16 +945,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
         <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
         <v>126</v>
       </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
       <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1083,12 +1015,6 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1098,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1109,13 +1035,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1137,13 +1063,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1151,13 +1077,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,13 +1091,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,13 +1105,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,13 +1119,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1207,13 +1133,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1221,13 +1147,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1235,13 +1161,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1249,13 +1175,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1263,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,13 +1203,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1291,13 +1217,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1305,13 +1231,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1319,13 +1245,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,13 +1259,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,13 +1273,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,13 +1287,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1375,13 +1301,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,13 +1315,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1403,13 +1329,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1417,13 +1343,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1431,13 +1357,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,13 +1371,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,13 +1385,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,13 +1399,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1487,13 +1413,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1501,13 +1427,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1515,13 +1441,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1529,13 +1455,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1543,13 +1469,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1557,13 +1483,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1571,13 +1497,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1585,13 +1511,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,13 +1525,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,13 +1539,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1627,13 +1553,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1641,13 +1567,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,13 +1581,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,13 +1595,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,13 +1609,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,13 +1623,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1711,25 +1637,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F3 E2:E51 F5:F7">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"finished"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"on hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"not started"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencersedano/Desktop/2025 Coding Resolution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762EAB73-BB51-294C-89E4-3E32EAB4C4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4227E1A7-91A9-B34B-A23E-344F9CD0F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="900" windowWidth="29920" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
+    <workbookView xWindow="4680" yWindow="900" windowWidth="25800" windowHeight="18580" xr2:uid="{44AB305C-C398-274B-AEE2-994E818B9269}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <t>Week</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Your first REST API.</t>
   </si>
   <si>
-    <t>Weather Dashboard</t>
-  </si>
-  <si>
-    <t>Fetch real-time weather data using APIs.</t>
-  </si>
-  <si>
     <t>Employee Management System</t>
   </si>
   <si>
@@ -423,6 +417,12 @@
   </si>
   <si>
     <t>Add validation and ASP.NET backend</t>
+  </si>
+  <si>
+    <t>CC-CEDICT Parser</t>
+  </si>
+  <si>
+    <t>Read files with C# and parse them into JSON</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DB55-BE55-E04B-9154-66CDC440505F}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -894,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -908,16 +908,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -931,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -945,16 +945,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
         <v>124</v>
       </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
       <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,10 +1002,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1024,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,13 +1038,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1049,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,13 +1066,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,13 +1080,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1091,13 +1094,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,13 +1108,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,13 +1122,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,13 +1136,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1147,13 +1150,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,13 +1164,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,13 +1178,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,13 +1192,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1203,13 +1206,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1217,13 +1220,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,13 +1234,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1245,13 +1248,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,13 +1262,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1273,13 +1276,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,13 +1290,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,13 +1304,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,13 +1318,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1329,13 +1332,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1343,13 +1346,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1357,13 +1360,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1371,13 +1374,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,13 +1388,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,13 +1402,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1413,13 +1416,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1427,13 +1430,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,13 +1444,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1455,13 +1458,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,13 +1472,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1483,13 +1486,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
         <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1497,13 +1500,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1511,13 +1514,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,13 +1528,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1539,13 +1542,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,13 +1556,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,13 +1570,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1581,13 +1584,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1595,13 +1598,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,13 +1612,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1623,13 +1626,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1637,13 +1640,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
